--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Robo1-Robo1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Robo1-Robo1.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="H2">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="I2">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="J2">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N2">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O2">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P2">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q2">
-        <v>0.03089556162177777</v>
+        <v>0.001639845025</v>
       </c>
       <c r="R2">
-        <v>0.278060054596</v>
+        <v>0.014758605225</v>
       </c>
       <c r="S2">
-        <v>8.9194128325E-05</v>
+        <v>4.803738199263875E-06</v>
       </c>
       <c r="T2">
-        <v>8.919412832500004E-05</v>
+        <v>4.803738199263877E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="H3">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="I3">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="J3">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>50.949371</v>
       </c>
       <c r="O3">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P3">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q3">
-        <v>2.985146291054888</v>
+        <v>0.6877315928816666</v>
       </c>
       <c r="R3">
-        <v>26.866316619494</v>
+        <v>6.189584335935</v>
       </c>
       <c r="S3">
-        <v>0.008617986124115868</v>
+        <v>0.002014630939631782</v>
       </c>
       <c r="T3">
-        <v>0.00861798612411587</v>
+        <v>0.002014630939631783</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="H4">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="I4">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="J4">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N4">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O4">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P4">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q4">
-        <v>0.2553153026531111</v>
+        <v>0.05882070178833333</v>
       </c>
       <c r="R4">
-        <v>2.297837723878</v>
+        <v>0.529386316095</v>
       </c>
       <c r="S4">
-        <v>0.0007370840558575818</v>
+        <v>0.0001723085095118216</v>
       </c>
       <c r="T4">
-        <v>0.0007370840558575822</v>
+        <v>0.0001723085095118216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,40 +723,40 @@
         <v>50.949371</v>
       </c>
       <c r="I5">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="J5">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N5">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O5">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P5">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q5">
-        <v>2.985146291054888</v>
+        <v>0.6877315928816666</v>
       </c>
       <c r="R5">
-        <v>26.866316619494</v>
+        <v>6.189584335935</v>
       </c>
       <c r="S5">
-        <v>0.008617986124115868</v>
+        <v>0.002014630939631782</v>
       </c>
       <c r="T5">
-        <v>0.00861798612411587</v>
+        <v>0.002014630939631783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>50.949371</v>
       </c>
       <c r="I6">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="J6">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>50.949371</v>
       </c>
       <c r="O6">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P6">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q6">
         <v>288.4264894772935</v>
@@ -815,10 +815,10 @@
         <v>2595.838405295641</v>
       </c>
       <c r="S6">
-        <v>0.8326745967496245</v>
+        <v>0.8449123691927258</v>
       </c>
       <c r="T6">
-        <v>0.8326745967496245</v>
+        <v>0.8449123691927258</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>50.949371</v>
       </c>
       <c r="I7">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="J7">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,16 +859,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N7">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O7">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P7">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q7">
         <v>24.66870607806856</v>
@@ -877,10 +877,10 @@
         <v>222.018354702617</v>
       </c>
       <c r="S7">
-        <v>0.07121747008437605</v>
+        <v>0.07226414929888321</v>
       </c>
       <c r="T7">
-        <v>0.07121747008437607</v>
+        <v>0.07226414929888321</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,46 +903,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="H8">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="I8">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="J8">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1757713333333333</v>
+        <v>0.040495</v>
       </c>
       <c r="N8">
-        <v>0.5273139999999999</v>
+        <v>0.121485</v>
       </c>
       <c r="O8">
-        <v>0.00944426430829845</v>
+        <v>0.002191743187342868</v>
       </c>
       <c r="P8">
-        <v>0.009444264308298452</v>
+        <v>0.002191743187342869</v>
       </c>
       <c r="Q8">
-        <v>0.2553153026531111</v>
+        <v>0.05882070178833333</v>
       </c>
       <c r="R8">
-        <v>2.297837723878</v>
+        <v>0.529386316095</v>
       </c>
       <c r="S8">
-        <v>0.0007370840558575818</v>
+        <v>0.0001723085095118216</v>
       </c>
       <c r="T8">
-        <v>0.0007370840558575822</v>
+        <v>0.0001723085095118216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="H9">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="I9">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="J9">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,10 +989,10 @@
         <v>50.949371</v>
       </c>
       <c r="O9">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="P9">
-        <v>0.9125100529581165</v>
+        <v>0.9191911494312409</v>
       </c>
       <c r="Q9">
         <v>24.66870607806856</v>
@@ -1001,10 +1001,10 @@
         <v>222.018354702617</v>
       </c>
       <c r="S9">
-        <v>0.07121747008437605</v>
+        <v>0.07226414929888321</v>
       </c>
       <c r="T9">
-        <v>0.07121747008437607</v>
+        <v>0.07226414929888321</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="H10">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="I10">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="J10">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.452542333333334</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N10">
-        <v>4.357627000000001</v>
+        <v>4.357627</v>
       </c>
       <c r="O10">
-        <v>0.07804568273358505</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="P10">
-        <v>0.07804568273358506</v>
+        <v>0.07861710738141615</v>
       </c>
       <c r="Q10">
         <v>2.109879230125445</v>
       </c>
       <c r="R10">
-        <v>18.98891307112901</v>
+        <v>18.988913071129</v>
       </c>
       <c r="S10">
-        <v>0.006091128593351415</v>
+        <v>0.006180649573021118</v>
       </c>
       <c r="T10">
-        <v>0.006091128593351417</v>
+        <v>0.006180649573021118</v>
       </c>
     </row>
   </sheetData>
